--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1070439.425827227</v>
+        <v>-1073298.265083325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>213.2248707980291</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>31.51845117291822</v>
+        <v>19.05431470729735</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.036730852408741</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25.79907605503156</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>129.7160933132978</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>179.3002208207332</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>68.05955538367301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>32.55518202532699</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>14.60567694942088</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>113.4717443368914</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>110.3078071497318</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>246.9027496414554</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.71316050133775</v>
+        <v>411.7131605013378</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>176.4266303789851</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>72.08872174598517</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.2225833843392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>13.80315990928304</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>137.5092476667379</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1227,10 +1227,10 @@
         <v>135.4229241411586</v>
       </c>
       <c r="H9" t="n">
-        <v>51.23407415864803</v>
+        <v>93.68655899720457</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.27095204830817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.0089980845821</v>
       </c>
       <c r="T9" t="n">
         <v>192.4233910313751</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3808186856714</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.9113803439301</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.27884112399842</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.8947123989307</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>132.2712741442312</v>
+        <v>221.0658120081901</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>298.9494425801196</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>3.132302579344191</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.84464054481994</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1582,10 +1582,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>53.76947475493857</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560543</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519741</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>188.7692896015413</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>192.5871593887784</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>172.1659031415431</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>275.6685478670739</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.73384166348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>218.9829906665628</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261737</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.98113264792551</v>
+        <v>573.0992060671</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792551</v>
+        <v>573.0992060671</v>
       </c>
       <c r="D2" t="n">
-        <v>53.98113264792551</v>
+        <v>573.0992060671</v>
       </c>
       <c r="E2" t="n">
-        <v>53.98113264792551</v>
+        <v>306.721549499922</v>
       </c>
       <c r="F2" t="n">
-        <v>53.98113264792551</v>
+        <v>40.34389293274408</v>
       </c>
       <c r="G2" t="n">
-        <v>22.14431328134144</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>22.14431328134144</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822814</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822814</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>320.3587892151035</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.98113264792551</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>462.580872333999</v>
+        <v>471.0283840154698</v>
       </c>
       <c r="C3" t="n">
-        <v>462.580872333999</v>
+        <v>296.5753547343428</v>
       </c>
       <c r="D3" t="n">
-        <v>462.580872333999</v>
+        <v>147.6409450730915</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>147.6409450730915</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4410,49 +4410,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>905.4932793306957</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>905.4932793306957</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>905.4932793306957</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>670.3411710989529</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>670.3411710989529</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>670.3411710989529</v>
+        <v>847.0040198004917</v>
       </c>
       <c r="Y3" t="n">
-        <v>462.580872333999</v>
+        <v>639.2437210355379</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4495,7 +4495,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227045</v>
@@ -4519,19 +4519,19 @@
         <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>356.2217926073722</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V4" t="n">
-        <v>356.2217926073722</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="W4" t="n">
-        <v>89.84413604019426</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="X4" t="n">
-        <v>89.84413604019426</v>
+        <v>441.4881150121934</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>441.4881150121934</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.7364457822814</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C5" t="n">
-        <v>586.7364457822814</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D5" t="n">
-        <v>586.7364457822814</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E5" t="n">
-        <v>586.7364457822814</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3587892151035</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4571,7 +4571,7 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822814</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822814</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.7364457822814</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.9593752778842</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="C6" t="n">
-        <v>444.5063459967572</v>
+        <v>598.8123849629098</v>
       </c>
       <c r="D6" t="n">
-        <v>295.5719363355059</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="E6" t="n">
-        <v>136.3344813300504</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F6" t="n">
-        <v>136.3344813300504</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3344813300504</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
-        <v>35.85031943993957</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4656,10 +4656,10 @@
         <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278862</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="W6" t="n">
-        <v>826.7196740428381</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="X6" t="n">
-        <v>826.7196740428381</v>
+        <v>773.2654142440368</v>
       </c>
       <c r="Y6" t="n">
-        <v>618.9593752778842</v>
+        <v>773.2654142440368</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>607.8539298272474</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>607.8539298272474</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>459.9408362448543</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>313.0508887469439</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4756,19 +4756,19 @@
         <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>719.2759572512189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1583.045716029558</v>
+        <v>1510.883512729841</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.083199089147</v>
+        <v>1510.883512729841</v>
       </c>
       <c r="D8" t="n">
-        <v>855.8175004823963</v>
+        <v>1510.883512729841</v>
       </c>
       <c r="E8" t="n">
-        <v>470.0292478841521</v>
+        <v>1125.095260131597</v>
       </c>
       <c r="F8" t="n">
-        <v>59.04334309454457</v>
+        <v>714.1093553419894</v>
       </c>
       <c r="G8" t="n">
-        <v>47.21186784066806</v>
+        <v>298.2374760477088</v>
       </c>
       <c r="H8" t="n">
-        <v>47.21186784066806</v>
+        <v>120.0287584931784</v>
       </c>
       <c r="I8" t="n">
-        <v>47.21186784066806</v>
+        <v>47.21186784066809</v>
       </c>
       <c r="J8" t="n">
-        <v>169.590675813281</v>
+        <v>169.5906758132801</v>
       </c>
       <c r="K8" t="n">
-        <v>403.743303776881</v>
+        <v>403.7433037768806</v>
       </c>
       <c r="L8" t="n">
         <v>731.1321058153637</v>
       </c>
       <c r="M8" t="n">
-        <v>1127.08466659606</v>
+        <v>1127.084666596061</v>
       </c>
       <c r="N8" t="n">
-        <v>1534.057962144679</v>
+        <v>1534.05796214468</v>
       </c>
       <c r="O8" t="n">
-        <v>1905.016043479816</v>
+        <v>1905.016043479817</v>
       </c>
       <c r="P8" t="n">
-        <v>2187.119182621866</v>
+        <v>2187.119182621867</v>
       </c>
       <c r="Q8" t="n">
-        <v>2350.794145047378</v>
+        <v>2350.79414504738</v>
       </c>
       <c r="R8" t="n">
-        <v>2360.593392033403</v>
+        <v>2360.593392033405</v>
       </c>
       <c r="S8" t="n">
-        <v>2360.593392033403</v>
+        <v>2232.085732049224</v>
       </c>
       <c r="T8" t="n">
-        <v>2360.593392033403</v>
+        <v>2232.085732049224</v>
       </c>
       <c r="U8" t="n">
-        <v>2360.593392033403</v>
+        <v>2232.085732049224</v>
       </c>
       <c r="V8" t="n">
-        <v>2360.593392033403</v>
+        <v>1901.022844705653</v>
       </c>
       <c r="W8" t="n">
-        <v>2346.65080626645</v>
+        <v>1901.022844705653</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.18504800537</v>
+        <v>1901.022844705653</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.045716029558</v>
+        <v>1510.883512729841</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>864.9137422866741</v>
+        <v>895.746252958681</v>
       </c>
       <c r="C9" t="n">
-        <v>690.4607130055471</v>
+        <v>756.8480229922791</v>
       </c>
       <c r="D9" t="n">
-        <v>541.5263033442958</v>
+        <v>607.9136133310278</v>
       </c>
       <c r="E9" t="n">
-        <v>382.2888483388403</v>
+        <v>448.6761583255724</v>
       </c>
       <c r="F9" t="n">
-        <v>235.7542903657253</v>
+        <v>302.1416003524573</v>
       </c>
       <c r="G9" t="n">
-        <v>98.96345789990849</v>
+        <v>165.3507678866406</v>
       </c>
       <c r="H9" t="n">
-        <v>47.21186784066806</v>
+        <v>70.71788001067635</v>
       </c>
       <c r="I9" t="n">
-        <v>47.21186784066806</v>
+        <v>47.21186784066809</v>
       </c>
       <c r="J9" t="n">
-        <v>101.2820005333977</v>
+        <v>226.1121255204026</v>
       </c>
       <c r="K9" t="n">
-        <v>533.6718788366753</v>
+        <v>525.6032519396185</v>
       </c>
       <c r="L9" t="n">
-        <v>809.3458848770492</v>
+        <v>801.2772579799927</v>
       </c>
       <c r="M9" t="n">
-        <v>1150.401315395592</v>
+        <v>1142.332688498536</v>
       </c>
       <c r="N9" t="n">
-        <v>1514.892113233602</v>
+        <v>1506.823486336546</v>
       </c>
       <c r="O9" t="n">
-        <v>1826.110188999318</v>
+        <v>1818.041562102263</v>
       </c>
       <c r="P9" t="n">
-        <v>2256.464953989687</v>
+        <v>2048.488439131198</v>
       </c>
       <c r="Q9" t="n">
-        <v>2360.593392033403</v>
+        <v>2360.593392033405</v>
       </c>
       <c r="R9" t="n">
-        <v>2360.593392033403</v>
+        <v>2360.593392033405</v>
       </c>
       <c r="S9" t="n">
-        <v>2360.593392033403</v>
+        <v>2223.210565685342</v>
       </c>
       <c r="T9" t="n">
-        <v>2166.226330385549</v>
+        <v>2028.843504037488</v>
       </c>
       <c r="U9" t="n">
-        <v>1938.130343237173</v>
+        <v>1800.747516889112</v>
       </c>
       <c r="V9" t="n">
-        <v>1702.97823500543</v>
+        <v>1565.595408657369</v>
       </c>
       <c r="W9" t="n">
-        <v>1448.740878277229</v>
+        <v>1311.358051929168</v>
       </c>
       <c r="X9" t="n">
-        <v>1240.889378071696</v>
+        <v>1103.506551723635</v>
       </c>
       <c r="Y9" t="n">
-        <v>1033.129079306742</v>
+        <v>895.746252958681</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.0677312612141</v>
+        <v>747.6422222074362</v>
       </c>
       <c r="C10" t="n">
-        <v>492.1315483333073</v>
+        <v>747.6422222074362</v>
       </c>
       <c r="D10" t="n">
-        <v>342.0149089209715</v>
+        <v>747.6422222074362</v>
       </c>
       <c r="E10" t="n">
-        <v>194.1018153385784</v>
+        <v>599.7291286250431</v>
       </c>
       <c r="F10" t="n">
-        <v>47.21186784066806</v>
+        <v>452.8391811271327</v>
       </c>
       <c r="G10" t="n">
-        <v>47.21186784066806</v>
+        <v>284.777748111303</v>
       </c>
       <c r="H10" t="n">
-        <v>47.21186784066806</v>
+        <v>135.3723134204645</v>
       </c>
       <c r="I10" t="n">
-        <v>47.21186784066806</v>
+        <v>47.21186784066809</v>
       </c>
       <c r="J10" t="n">
-        <v>67.48625549556748</v>
+        <v>67.48625549556758</v>
       </c>
       <c r="K10" t="n">
-        <v>230.6401391719452</v>
+        <v>230.6401391719454</v>
       </c>
       <c r="L10" t="n">
-        <v>494.9473729645381</v>
+        <v>494.9473729645384</v>
       </c>
       <c r="M10" t="n">
-        <v>784.0114154846119</v>
+        <v>784.0114154846123</v>
       </c>
       <c r="N10" t="n">
         <v>1071.636777585315</v>
       </c>
       <c r="O10" t="n">
-        <v>1321.289057484694</v>
+        <v>1321.289057484695</v>
       </c>
       <c r="P10" t="n">
         <v>1511.389029473806</v>
       </c>
       <c r="Q10" t="n">
-        <v>1559.569316268027</v>
+        <v>1559.569316268028</v>
       </c>
       <c r="R10" t="n">
-        <v>1559.569316268027</v>
+        <v>1453.615061319613</v>
       </c>
       <c r="S10" t="n">
-        <v>1559.569316268027</v>
+        <v>1453.615061319613</v>
       </c>
       <c r="T10" t="n">
-        <v>1425.961968647592</v>
+        <v>1230.31626131134</v>
       </c>
       <c r="U10" t="n">
-        <v>1425.961968647592</v>
+        <v>1230.31626131134</v>
       </c>
       <c r="V10" t="n">
-        <v>1171.277480441705</v>
+        <v>975.6317731054536</v>
       </c>
       <c r="W10" t="n">
-        <v>881.8603104047443</v>
+        <v>975.6317731054536</v>
       </c>
       <c r="X10" t="n">
-        <v>881.8603104047443</v>
+        <v>747.6422222074362</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.0677312612141</v>
+        <v>747.6422222074362</v>
       </c>
     </row>
     <row r="11">
@@ -5030,52 +5030,52 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608047</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128779</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
         <v>3467.429399206857</v>
@@ -5106,34 +5106,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>423.3203657894392</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L12" t="n">
-        <v>914.0526986331903</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.071052885318</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N12" t="n">
-        <v>2128.167016284654</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.918335063571</v>
+        <v>1037.819691913234</v>
       </c>
       <c r="C13" t="n">
-        <v>392.9821521356641</v>
+        <v>868.8835089853267</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8655127233284</v>
+        <v>718.7668695729909</v>
       </c>
       <c r="E13" t="n">
-        <v>239.7015707239908</v>
+        <v>570.8537759905978</v>
       </c>
       <c r="F13" t="n">
-        <v>92.81162322608048</v>
+        <v>423.9638284926874</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608048</v>
+        <v>256.7496336672663</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608048</v>
+        <v>114.8769167056967</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149097</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.526801863479</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178206</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.766099972319</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.348929935358</v>
+        <v>1668.250286785021</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3593790373409</v>
+        <v>1440.260735887003</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5667998938108</v>
+        <v>1219.468156743473</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>95.5840502527391</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2325.6047790701</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2106.003314093041</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2106.003314093041</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.5840502527391</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.5840502527391</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>95.5840502527391</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>577.862038843392</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>408.9258559154851</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154851</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>261.012762333092</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1497.70980375214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.292633715179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>980.3030828171619</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.5105036736318</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6242,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273902</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954151</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,22 +7081,22 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311325</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,19 +7327,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094455</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583188</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>130.2240734933243</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>201.9271595570032</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>26.43426352462879</v>
+        <v>26.43426352462873</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>381.3157234727918</v>
+        <v>393.7798599384126</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.29152613728939</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>50.29152613729343</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>143.301660067225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>59.95993619958908</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>127.256811246706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>63.36835372228674</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.8182909385099</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>79.97174018228486</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>6.726664722474339</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-9.010571344715356e-14</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>200669.9429095077</v>
+        <v>200669.9429095078</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225015</v>
@@ -26344,7 +26344,7 @@
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340213.3253972759</v>
+        <v>340213.3253972764</v>
       </c>
       <c r="E3" t="n">
-        <v>543878.4104782817</v>
+        <v>543878.4104782818</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150422</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.510358884090614e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>102045.3439359521</v>
       </c>
       <c r="M3" t="n">
-        <v>142045.518013329</v>
+        <v>142045.5180133291</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355705008</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170672.7724220164</v>
+        <v>170672.7724220162</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>153568.5818181546</v>
+        <v>153568.5818181545</v>
       </c>
       <c r="E4" t="n">
         <v>10550.55566555585</v>
@@ -26430,34 +26430,34 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987464</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987464</v>
       </c>
       <c r="N4" t="n">
+        <v>18547.94754987464</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18547.94754987463</v>
+      </c>
+      <c r="P4" t="n">
         <v>18547.94754987468</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18547.94754987469</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18547.94754987469</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88973.99831047707</v>
+        <v>88973.99831047709</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743439.7083101602</v>
+        <v>-743788.6242557478</v>
       </c>
       <c r="C6" t="n">
         <v>-108120.0267130575</v>
       </c>
       <c r="D6" t="n">
-        <v>-377495.4630598367</v>
+        <v>-377495.4630598371</v>
       </c>
       <c r="E6" t="n">
-        <v>-453901.1517481683</v>
+        <v>-453947.0567437339</v>
       </c>
       <c r="F6" t="n">
-        <v>78654.76869677092</v>
+        <v>78620.0307713364</v>
       </c>
       <c r="G6" t="n">
-        <v>90107.03181181307</v>
+        <v>90072.29388637737</v>
       </c>
       <c r="H6" t="n">
-        <v>90107.0318118135</v>
+        <v>90072.29388637755</v>
       </c>
       <c r="I6" t="n">
-        <v>90107.03181181314</v>
+        <v>90072.29388637752</v>
       </c>
       <c r="J6" t="n">
-        <v>21107.87739269914</v>
+        <v>21073.13946726342</v>
       </c>
       <c r="K6" t="n">
-        <v>90107.0318118132</v>
+        <v>90072.2938863774</v>
       </c>
       <c r="L6" t="n">
-        <v>-18496.96487367101</v>
+        <v>-18496.96487367102</v>
       </c>
       <c r="M6" t="n">
-        <v>-58497.13895104782</v>
+        <v>-58497.13895104828</v>
       </c>
       <c r="N6" t="n">
-        <v>80471.36170657584</v>
+        <v>80471.36170657615</v>
       </c>
       <c r="O6" t="n">
-        <v>83548.37906228084</v>
+        <v>83548.37906228083</v>
       </c>
       <c r="P6" t="n">
-        <v>83548.37906228084</v>
+        <v>83548.3790622809</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>892.9072821820798</v>
+        <v>892.9072821820803</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>590.1483480083507</v>
+        <v>590.1483480083511</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,25 +26808,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.218023548783847e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>278.8522684126016</v>
+        <v>278.852268412602</v>
       </c>
       <c r="E3" t="n">
         <v>465.1337665343056</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528883</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>326.4344680068446</v>
+        <v>326.434468006845</v>
       </c>
       <c r="E4" t="n">
-        <v>569.9969423176553</v>
+        <v>569.9969423176558</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.4344680068446</v>
+        <v>326.434468006845</v>
       </c>
       <c r="M4" t="n">
-        <v>569.9969423176553</v>
+        <v>569.9969423176558</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.4344680068446</v>
+        <v>326.434468006845</v>
       </c>
       <c r="M4" t="n">
-        <v>569.9969423176553</v>
+        <v>569.9969423176558</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364279</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>169.5089708654514</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114.2698886944884</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>119.2701363383523</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>17.43384209890098</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27515,13 +27515,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27555,7 +27555,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>72.83742250309479</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.5250979684218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27628,10 @@
         <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>380.278992620383</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,16 +27667,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>116.9617832120865</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.31612705208472</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>81.36924324798542</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>56.93901394889608</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -27828,7 +27828,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>39.35588086122209</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>302.7130465232155</v>
+        <v>126.2864161442304</v>
       </c>
       <c r="I8" t="n">
-        <v>72.08872174598525</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.2225833843392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.3824761862336</v>
@@ -27910,13 +27910,13 @@
         <v>251.0584867467327</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>335.43780880813</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>35.19925132157786</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>42.45248483855654</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.27095204830822</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.0089980845821</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3808186856714</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.9113803439301</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.028552149253</v>
+        <v>19.74971102525458</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.8947123989307</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.9558888575781</v>
+        <v>195.955888857578</v>
       </c>
       <c r="T10" t="n">
-        <v>88.79453786395885</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2312024107025</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.71678812803845e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.001811836948478e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.589577013797303</v>
+        <v>3.589577013797305</v>
       </c>
       <c r="H8" t="n">
-        <v>36.76175559255164</v>
+        <v>36.76175559255166</v>
       </c>
       <c r="I8" t="n">
         <v>138.3871678244207</v>
       </c>
       <c r="J8" t="n">
-        <v>304.6608620747791</v>
+        <v>304.6608620747793</v>
       </c>
       <c r="K8" t="n">
-        <v>456.607657068819</v>
+        <v>456.6076570688193</v>
       </c>
       <c r="L8" t="n">
-        <v>566.4621746048184</v>
+        <v>566.4621746048186</v>
       </c>
       <c r="M8" t="n">
-        <v>630.2983148239362</v>
+        <v>630.2983148239365</v>
       </c>
       <c r="N8" t="n">
-        <v>640.4972005143878</v>
+        <v>640.4972005143882</v>
       </c>
       <c r="O8" t="n">
-        <v>604.8033440834408</v>
+        <v>604.8033440834412</v>
       </c>
       <c r="P8" t="n">
-        <v>516.1856615553198</v>
+        <v>516.1856615553201</v>
       </c>
       <c r="Q8" t="n">
-        <v>387.6339347487038</v>
+        <v>387.633934748704</v>
       </c>
       <c r="R8" t="n">
-        <v>225.483767092945</v>
+        <v>225.4837670929452</v>
       </c>
       <c r="S8" t="n">
-        <v>81.79748620190612</v>
+        <v>81.79748620190617</v>
       </c>
       <c r="T8" t="n">
-        <v>15.7133733778977</v>
+        <v>15.71337337789771</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2871661611037842</v>
+        <v>0.2871661611037843</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.920593022052021</v>
+        <v>1.920593022052022</v>
       </c>
       <c r="H9" t="n">
-        <v>18.54888523929189</v>
+        <v>18.5488852392919</v>
       </c>
       <c r="I9" t="n">
-        <v>66.12568080310686</v>
+        <v>66.1256808031069</v>
       </c>
       <c r="J9" t="n">
-        <v>181.4539223158885</v>
+        <v>181.4539223158886</v>
       </c>
       <c r="K9" t="n">
-        <v>310.1336547933739</v>
+        <v>310.1336547933741</v>
       </c>
       <c r="L9" t="n">
-        <v>417.0129717398478</v>
+        <v>417.012971739848</v>
       </c>
       <c r="M9" t="n">
-        <v>486.6344687892334</v>
+        <v>486.6344687892337</v>
       </c>
       <c r="N9" t="n">
-        <v>499.5142351520298</v>
+        <v>499.51423515203</v>
       </c>
       <c r="O9" t="n">
-        <v>456.9579371370876</v>
+        <v>456.9579371370878</v>
       </c>
       <c r="P9" t="n">
-        <v>366.7490306758811</v>
+        <v>366.7490306758813</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.1620145342194</v>
+        <v>245.1620145342195</v>
       </c>
       <c r="R9" t="n">
         <v>119.2452404393352</v>
       </c>
       <c r="S9" t="n">
-        <v>35.67417301925571</v>
+        <v>35.67417301925573</v>
       </c>
       <c r="T9" t="n">
-        <v>7.74133766344652</v>
+        <v>7.741337663446523</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1263548040823698</v>
+        <v>0.1263548040823699</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.610160672787357</v>
+        <v>1.610160672787358</v>
       </c>
       <c r="H10" t="n">
-        <v>14.31579216350942</v>
+        <v>14.31579216350943</v>
       </c>
       <c r="I10" t="n">
-        <v>48.42192277800525</v>
+        <v>48.42192277800528</v>
       </c>
       <c r="J10" t="n">
-        <v>113.8383595660661</v>
+        <v>113.8383595660662</v>
       </c>
       <c r="K10" t="n">
-        <v>187.0713945292947</v>
+        <v>187.0713945292948</v>
       </c>
       <c r="L10" t="n">
-        <v>239.3869785705858</v>
+        <v>239.3869785705859</v>
       </c>
       <c r="M10" t="n">
-        <v>252.4000043715672</v>
+        <v>252.4000043715673</v>
       </c>
       <c r="N10" t="n">
-        <v>246.39849640936</v>
+        <v>246.3984964093601</v>
       </c>
       <c r="O10" t="n">
-        <v>227.5888921863439</v>
+        <v>227.5888921863441</v>
       </c>
       <c r="P10" t="n">
-        <v>194.7416144614817</v>
+        <v>194.7416144614818</v>
       </c>
       <c r="Q10" t="n">
-        <v>134.828999609494</v>
+        <v>134.8289996094941</v>
       </c>
       <c r="R10" t="n">
-        <v>72.39867897823878</v>
+        <v>72.39867897823881</v>
       </c>
       <c r="S10" t="n">
-        <v>28.0607091793942</v>
+        <v>28.06070917939422</v>
       </c>
       <c r="T10" t="n">
-        <v>6.879777420091433</v>
+        <v>6.879777420091436</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08782694578840139</v>
+        <v>0.08782694578840143</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>571.4938338238242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614906</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614906</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
@@ -35024,13 +35024,13 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.43861174566</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>123.6149575480928</v>
+        <v>123.614957548093</v>
       </c>
       <c r="K8" t="n">
-        <v>236.5178060238385</v>
+        <v>236.5178060238388</v>
       </c>
       <c r="L8" t="n">
-        <v>330.6957596348312</v>
+        <v>330.6957596348314</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9520815966634</v>
+        <v>399.9520815966638</v>
       </c>
       <c r="N8" t="n">
-        <v>411.0841369177969</v>
+        <v>411.0841369177973</v>
       </c>
       <c r="O8" t="n">
-        <v>374.7051326617541</v>
+        <v>374.7051326617544</v>
       </c>
       <c r="P8" t="n">
-        <v>284.9526658000503</v>
+        <v>284.9526658000505</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.3282448742543</v>
+        <v>165.3282448742545</v>
       </c>
       <c r="R8" t="n">
-        <v>9.89822927881292</v>
+        <v>9.898229278813034</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>54.61629564922185</v>
+        <v>180.7073309896308</v>
       </c>
       <c r="K9" t="n">
-        <v>436.7574528315935</v>
+        <v>302.5162893123394</v>
       </c>
       <c r="L9" t="n">
-        <v>278.4585919599736</v>
+        <v>278.4585919599738</v>
       </c>
       <c r="M9" t="n">
-        <v>344.5004348672151</v>
+        <v>344.5004348672153</v>
       </c>
       <c r="N9" t="n">
-        <v>368.1725230686965</v>
+        <v>368.1725230686967</v>
       </c>
       <c r="O9" t="n">
-        <v>314.3616926926431</v>
+        <v>314.3616926926434</v>
       </c>
       <c r="P9" t="n">
-        <v>434.701782818554</v>
+        <v>232.774623261551</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.1802404481978</v>
+        <v>315.2575281840471</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.47917944939336</v>
+        <v>20.47917944939341</v>
       </c>
       <c r="K10" t="n">
         <v>164.8019027034119</v>
       </c>
       <c r="L10" t="n">
-        <v>266.9770038309019</v>
+        <v>266.977003830902</v>
       </c>
       <c r="M10" t="n">
-        <v>291.9838813334078</v>
+        <v>291.9838813334079</v>
       </c>
       <c r="N10" t="n">
-        <v>290.5306687885886</v>
+        <v>290.5306687885887</v>
       </c>
       <c r="O10" t="n">
-        <v>252.1740201003836</v>
+        <v>252.1740201003837</v>
       </c>
       <c r="P10" t="n">
-        <v>192.0201737263752</v>
+        <v>192.0201737263753</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.66695635779966</v>
+        <v>48.66695635779972</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>428.8975893793797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394724</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394724</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
